--- a/sto/record.xlsx
+++ b/sto/record.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02-Workspace\02-elc\ssaa\sto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02-Workspace\02-elc\stostr\sto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -580,7 +580,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1349,7 +1351,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" activeCellId="1" sqref="A3:XFD3 A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>

--- a/sto/record.xlsx
+++ b/sto/record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="科创,588000.XSHG" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
   <si>
     <t>finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,14 @@
   </si>
   <si>
     <t>rounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latest_round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latest_round</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,1978 +586,2144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
         <v>44834</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>0.98899999999999999</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>2000</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>1978</v>
       </c>
-      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="L2">
-        <v>1</v>
-      </c>
+      <c r="J2" s="1"/>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>44844</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>0.93799999999999994</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>4000</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>5730</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>44847</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>0.97399999999999998</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>5900</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>100</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>44851</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>0.99099999999999999</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>2000</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>1987</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>44860</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>1.0529999999999999</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>1900</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>100</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>13.7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>44861</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>1.04</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>2000</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>2085</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>44869</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>1.1020000000000001</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>1900</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>100</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
         <v>43831</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>1.1639999999999999</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>2000</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>2338</v>
       </c>
-      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6">
-        <v>0</v>
-      </c>
+      <c r="L6" s="1"/>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
         <v>44881</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>1.093</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>4000</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>6715</v>
       </c>
-      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7">
-        <v>0</v>
-      </c>
+      <c r="L7" s="1"/>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
         <v>44916</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>0.99099999999999999</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>8000</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>14648</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>42</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8">
-        <v>0</v>
-      </c>
+      <c r="L8" s="1"/>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
         <v>43831</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>1.1639999999999999</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>2100</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>2455</v>
       </c>
-      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9">
-        <v>1</v>
-      </c>
+      <c r="L9" s="1"/>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
         <v>44893</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>1.0289999999999999</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>4000</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>6576</v>
       </c>
-      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10">
-        <v>1</v>
-      </c>
+      <c r="L10" s="1"/>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
         <v>44918</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>0.97599999999999998</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>8000</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>14389</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>44932</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>1.044</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>13800</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
         <v>200</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>18.2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
         <v>43831</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>1.1639999999999999</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>2000</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>2338</v>
       </c>
-      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12">
-        <v>0</v>
-      </c>
+      <c r="L12" s="1"/>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
         <v>44893</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>1.0289999999999999</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>4000</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>6459</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>44</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13">
-        <v>0</v>
-      </c>
+      <c r="L13" s="1"/>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
         <v>43831</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>1.1639999999999999</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>2000</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>2338</v>
       </c>
-      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14">
-        <v>0</v>
-      </c>
+      <c r="L14" s="1"/>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>7</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
         <v>44918</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>0.97599999999999998</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>4000</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>6247</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>45</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15">
-        <v>0</v>
-      </c>
+      <c r="L15" s="1"/>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>8</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
         <v>43831</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>1.1639999999999999</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>2000</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>2338</v>
       </c>
-      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16">
-        <v>0</v>
-      </c>
+      <c r="L16" s="1"/>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>8</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
         <v>44918</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>0.97599999999999998</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>4000</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>6247</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17">
-        <v>0</v>
-      </c>
+      <c r="L17" s="1"/>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>9</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
         <v>43831</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>1.1639999999999999</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>2000</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>2338</v>
       </c>
-      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18">
-        <v>0</v>
-      </c>
+      <c r="L18" s="1"/>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>9</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
         <v>44937</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>1.018</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>10000</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>12523</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19">
-        <v>0</v>
-      </c>
+      <c r="L19" s="1"/>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>10</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
         <v>43831</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>1.1639999999999999</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>2000</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>2338</v>
       </c>
-      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20">
-        <v>0</v>
-      </c>
+      <c r="L20" s="1"/>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>10</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
         <v>44937</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>1.018</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>10000</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>12523</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21">
-        <v>0</v>
-      </c>
+      <c r="L21" s="1"/>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="A3:XFD3 A2:XFD2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
         <v>44827</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>0.97099999999999997</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>2000</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>1942</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>44846</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>0.91300000000000003</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>4000</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>5594</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>44848</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>0.95</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>5900</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>100</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>44848</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>0.94499999999999995</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>2000</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>1895</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
         <v>44858</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.89300000000000002</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>4000</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>5472</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <v>44862</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>0.84</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>8000</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>12197</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>44869</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>0.88500000000000001</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>13800</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>200</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
         <v>44854</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>0.90600000000000003</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>4000</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>3629</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
         <v>44862</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>0.84</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>8000</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>10354</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>44867</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>0.879</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>11800</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
       <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>200</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>18.2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
         <v>44855</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>0.92400000000000004</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>4000</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>3701</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
         <v>44858</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>0.872</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>8000</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>10682</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>44869</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>0.90600000000000003</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>11800</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
       <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <v>200</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
         <v>44858</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>0.86099999999999999</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>8000</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>6893</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>44859</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>0.875</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>7900</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
         <v>100</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>19.5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
         <v>44869</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>0.92</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>8000</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>7365</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>44872</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>0.94499999999999995</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>7800</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
       <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>200</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>7</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
         <v>44871</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>0.93899999999999995</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>8000</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>7522</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>44880</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>0.96599999999999997</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>7800</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>200</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>12.8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>8</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
         <v>44875</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>0.88300000000000001</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>8000</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>7074</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>44876</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>0.94499999999999995</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>7500</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
       <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
         <v>500</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>13.5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>9</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
         <v>43831</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>1.319</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>2000</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>2648</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
         <v>44881</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>0.97299999999999998</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>4000</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>6545</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>44937</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>1.169</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>5600</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <v>400</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
         <v>43831</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>1.319</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>2000</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>2648</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>10</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
         <v>44886</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>0.96399999999999997</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>4000</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>6509</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <v>44931</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>1.1479999999999999</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>5700</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
       <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
         <v>300</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>34.6</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>11</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
         <v>43831</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>1.319</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>2000</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>2648</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>11</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
         <v>44893</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>0.91400000000000003</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>8000</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>9965</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <v>44896</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>1.0309999999999999</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>9700</v>
       </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
       <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
         <v>300</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>12</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
         <v>43831</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>1.319</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>2000</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>2648</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>53</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>13</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
         <v>43831</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>1.319</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>2000</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>2648</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>53</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>14</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
         <v>43831</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>1.319</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>2000</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>2648</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>53</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>15</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
         <v>43831</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>1.319</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>2000</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>2648</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>53</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>16</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
         <v>43831</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>1.319</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>2000</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>2648</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>53</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>17</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
         <v>43831</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>1.319</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>2000</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>2648</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>53</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>18</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
         <v>43831</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>1.319</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>2000</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>2648</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>53</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>19</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
         <v>43831</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>1.319</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>2000</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>2648</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>53</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>20</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
         <v>43831</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>1.319</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>2000</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>2648</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>53</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>21</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
         <v>43831</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>1.319</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>2000</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>2648</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>53</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>22</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
         <v>43831</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>1.319</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>2000</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>2648</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>53</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>23</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
         <v>43831</v>
       </c>
-      <c r="C32" s="1">
+      <c r="D32" s="1">
         <v>1.319</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>2000</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>2648</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>53</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>24</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
         <v>43831</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D33" s="1">
         <v>1.319</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>2000</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>2648</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>53</v>
       </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>25</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
         <v>43831</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="1">
         <v>1.319</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>1600</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>2121</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>53</v>
       </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
         <v>0</v>
       </c>
     </row>

--- a/sto/record.xlsx
+++ b/sto/record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916"/>
   </bookViews>
   <sheets>
     <sheet name="科创,588000.XSHG" sheetId="1" r:id="rId1"/>
@@ -224,15 +224,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rounds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>latest_round</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>latest_round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,13 +588,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
@@ -608,10 +608,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1424,10 +1424,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
@@ -1443,10 +1444,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
